--- a/4ИСИП-519/УП_4ИСИП-519.xlsx
+++ b/4ИСИП-519/УП_4ИСИП-519.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\4ИСИП-519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D9B60B-36F0-4F08-BA7F-45123CF3DA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B7544B-8297-4E8A-BF6F-188641A162A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,10 +486,10 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -570,7 +570,9 @@
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -588,7 +590,9 @@
       <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -606,7 +610,9 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -692,7 +698,9 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -709,7 +717,9 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -725,7 +735,9 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -756,7 +768,9 @@
         <v>12</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -787,7 +801,9 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -806,7 +822,9 @@
       <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -821,7 +839,9 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -837,8 +857,12 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -892,7 +916,9 @@
       <c r="C25" s="2">
         <v>5</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -907,7 +933,9 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -960,8 +988,12 @@
       <c r="C29" s="2">
         <v>5</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
